--- a/heima-bankuai-list-2017-03-02.xlsx
+++ b/heima-bankuai-list-2017-03-02.xlsx
@@ -82,7 +82,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=339908&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>3/53</t>
+    <t>3/54</t>
   </si>
   <si>
     <t>2017-2-9</t>
@@ -94,7 +94,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=338216&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D686</t>
   </si>
   <si>
-    <t>3/182</t>
+    <t>3/183</t>
   </si>
   <si>
     <t>7 天前</t>
@@ -367,7 +367,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=337004&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D647</t>
   </si>
   <si>
-    <t>41/1171</t>
+    <t>41/1172</t>
   </si>
   <si>
     <t>5 天前</t>
@@ -1456,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2002,939 +2002,913 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s"/>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s"/>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s"/>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s"/>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s"/>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s"/>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s"/>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s"/>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s"/>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s"/>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s"/>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s"/>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s"/>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s"/>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" t="s"/>
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s"/>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s"/>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s"/>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s"/>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s"/>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s"/>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s"/>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s"/>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s"/>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s"/>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s"/>
       <c r="F41" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s"/>
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s"/>
       <c r="F42" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B43" t="s"/>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s"/>
       <c r="F43" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s"/>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s"/>
       <c r="F44" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s"/>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s"/>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="H45" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s"/>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s"/>
       <c r="F46" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B47" t="s">
-        <v>183</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B47" t="s"/>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s"/>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="H47" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" t="s">
-        <v>183</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B48" t="s"/>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s"/>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="H48" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" t="s">
-        <v>183</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B49" t="s"/>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s"/>
       <c r="F49" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="G49" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="H49" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>175</v>
-      </c>
-      <c r="B50" t="s">
-        <v>194</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B50" t="s"/>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E50" t="s"/>
       <c r="F50" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="H50" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" t="s">
-        <v>198</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B51" t="s"/>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
         <v>118</v>
       </c>
       <c r="E51" t="s"/>
       <c r="F51" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="G51" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="H51" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>175</v>
-      </c>
-      <c r="B52" t="s">
-        <v>203</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B52" t="s"/>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s"/>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="G52" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="H52" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>175</v>
-      </c>
-      <c r="B53" t="s">
-        <v>208</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s"/>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s"/>
       <c r="F53" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="G53" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="H53" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s"/>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s"/>
       <c r="F54" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="G54" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="H54" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>175</v>
-      </c>
-      <c r="B55" t="s">
-        <v>208</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B55" t="s"/>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s"/>
       <c r="F55" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="G55" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="H55" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s"/>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="E56" t="s"/>
       <c r="F56" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="G56" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="H56" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>175</v>
-      </c>
-      <c r="B57" t="s">
-        <v>51</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B57" t="s"/>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="E57" t="s"/>
       <c r="F57" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="G57" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="H57" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s"/>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="E58" t="s"/>
       <c r="F58" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="G58" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="H58" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s"/>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="E59" t="s"/>
       <c r="F59" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="H59" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s"/>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="E60" t="s"/>
       <c r="F60" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="H60" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" t="s">
-        <v>51</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B61" t="s"/>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="E61" t="s"/>
       <c r="F61" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="G61" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c r="H61" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" t="s">
-        <v>51</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B62" t="s"/>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="E62" t="s"/>
       <c r="F62" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
       <c r="H62" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B63" t="s">
-        <v>51</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B63" t="s"/>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E63" t="s"/>
       <c r="F63" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="H63" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" t="s">
-        <v>51</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B64" t="s"/>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="E64" t="s"/>
       <c r="F64" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G64" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>175</v>
-      </c>
-      <c r="B65" t="s">
-        <v>51</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B65" t="s"/>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="E65" t="s"/>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="G65" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="H65" t="s">
-        <v>256</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
         <v>51</v>
@@ -2943,89 +2917,83 @@
         <v>52</v>
       </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="E66" t="s"/>
       <c r="F66" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="H66" t="s">
-        <v>260</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>175</v>
-      </c>
-      <c r="B67" t="s">
-        <v>51</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B67" t="s"/>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="E67" t="s"/>
       <c r="F67" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="G67" t="s">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="H67" t="s">
-        <v>263</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>175</v>
       </c>
-      <c r="B68" t="s">
-        <v>51</v>
-      </c>
+      <c r="B68" t="s"/>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="E68" t="s"/>
       <c r="F68" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="G68" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="H68" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>175</v>
       </c>
-      <c r="B69" t="s">
-        <v>51</v>
-      </c>
+      <c r="B69" t="s"/>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="E69" t="s"/>
       <c r="F69" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="G69" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="H69" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3033,23 +3001,23 @@
         <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="E70" t="s"/>
       <c r="F70" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="G70" t="s">
-        <v>271</v>
+        <v>186</v>
       </c>
       <c r="H70" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3057,23 +3025,23 @@
         <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="E71" t="s"/>
       <c r="F71" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="G71" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="H71" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3081,23 +3049,23 @@
         <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s"/>
       <c r="F72" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="G72" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="H72" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3105,23 +3073,23 @@
         <v>175</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="D73" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="E73" t="s"/>
       <c r="F73" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="G73" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="H73" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3129,23 +3097,23 @@
         <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="E74" t="s"/>
       <c r="F74" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="G74" t="s">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="H74" t="s">
-        <v>284</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3153,23 +3121,23 @@
         <v>175</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="D75" t="s">
-        <v>285</v>
+        <v>118</v>
       </c>
       <c r="E75" t="s"/>
       <c r="F75" t="s">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="G75" t="s">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="H75" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3177,47 +3145,45 @@
         <v>175</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="D76" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="E76" t="s"/>
       <c r="F76" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="G76" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="H76" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>175</v>
       </c>
-      <c r="B77" t="s">
-        <v>51</v>
-      </c>
+      <c r="B77" t="s"/>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="D77" t="s">
-        <v>292</v>
+        <v>214</v>
       </c>
       <c r="E77" t="s"/>
       <c r="F77" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="G77" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="H77" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3225,47 +3191,45 @@
         <v>175</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="D78" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="E78" t="s"/>
       <c r="F78" t="s">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="G78" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="H78" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>175</v>
       </c>
-      <c r="B79" t="s">
-        <v>51</v>
-      </c>
+      <c r="B79" t="s"/>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="D79" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="E79" t="s"/>
       <c r="F79" t="s">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="G79" t="s">
-        <v>301</v>
+        <v>224</v>
       </c>
       <c r="H79" t="s">
-        <v>302</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3279,89 +3243,83 @@
         <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>303</v>
+        <v>226</v>
       </c>
       <c r="E80" t="s"/>
       <c r="F80" t="s">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="G80" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="H80" t="s">
-        <v>306</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>175</v>
       </c>
-      <c r="B81" t="s">
-        <v>51</v>
-      </c>
+      <c r="B81" t="s"/>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E81" t="s"/>
       <c r="F81" t="s">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="G81" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="H81" t="s">
-        <v>309</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>175</v>
       </c>
-      <c r="B82" t="s">
-        <v>51</v>
-      </c>
+      <c r="B82" t="s"/>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="E82" t="s"/>
       <c r="F82" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="G82" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="H82" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>175</v>
       </c>
-      <c r="B83" t="s">
-        <v>51</v>
-      </c>
+      <c r="B83" t="s"/>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="E83" t="s"/>
       <c r="F83" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="G83" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="H83" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3375,17 +3333,17 @@
         <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s"/>
       <c r="F84" t="s">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="G84" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="H84" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3399,17 +3357,17 @@
         <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>321</v>
+        <v>226</v>
       </c>
       <c r="E85" t="s"/>
       <c r="F85" t="s">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="G85" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="H85" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3423,17 +3381,17 @@
         <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="E86" t="s"/>
       <c r="F86" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="G86" t="s">
-        <v>327</v>
+        <v>247</v>
       </c>
       <c r="H86" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3447,17 +3405,17 @@
         <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="E87" t="s"/>
       <c r="F87" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="G87" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="H87" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3471,17 +3429,17 @@
         <v>52</v>
       </c>
       <c r="D88" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="E88" t="s"/>
       <c r="F88" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="G88" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="H88" t="s">
-        <v>335</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3495,17 +3453,17 @@
         <v>52</v>
       </c>
       <c r="D89" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="E89" t="s"/>
       <c r="F89" t="s">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="G89" t="s">
-        <v>338</v>
+        <v>259</v>
       </c>
       <c r="H89" t="s">
-        <v>339</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3519,17 +3477,17 @@
         <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="E90" t="s"/>
       <c r="F90" t="s">
-        <v>341</v>
+        <v>261</v>
       </c>
       <c r="G90" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="H90" t="s">
-        <v>343</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3543,17 +3501,17 @@
         <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>344</v>
+        <v>257</v>
       </c>
       <c r="E91" t="s"/>
       <c r="F91" t="s">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="G91" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="H91" t="s">
-        <v>347</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3567,17 +3525,17 @@
         <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>348</v>
+        <v>257</v>
       </c>
       <c r="E92" t="s"/>
       <c r="F92" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="G92" t="s">
-        <v>350</v>
+        <v>268</v>
       </c>
       <c r="H92" t="s">
-        <v>351</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3591,17 +3549,17 @@
         <v>52</v>
       </c>
       <c r="D93" t="s">
-        <v>352</v>
+        <v>257</v>
       </c>
       <c r="E93" t="s"/>
       <c r="F93" t="s">
-        <v>353</v>
+        <v>270</v>
       </c>
       <c r="G93" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="H93" t="s">
-        <v>355</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3615,17 +3573,17 @@
         <v>52</v>
       </c>
       <c r="D94" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="E94" t="s"/>
       <c r="F94" t="s">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="G94" t="s">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="H94" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3639,17 +3597,17 @@
         <v>52</v>
       </c>
       <c r="D95" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="E95" t="s"/>
       <c r="F95" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="G95" t="s">
-        <v>361</v>
+        <v>277</v>
       </c>
       <c r="H95" t="s">
-        <v>362</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3663,17 +3621,17 @@
         <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="E96" t="s"/>
       <c r="F96" t="s">
-        <v>363</v>
+        <v>279</v>
       </c>
       <c r="G96" t="s">
-        <v>364</v>
+        <v>280</v>
       </c>
       <c r="H96" t="s">
-        <v>365</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3687,16 +3645,568 @@
         <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="E97" t="s"/>
       <c r="F97" t="s">
+        <v>282</v>
+      </c>
+      <c r="G97" t="s">
+        <v>283</v>
+      </c>
+      <c r="H97" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" t="s">
+        <v>285</v>
+      </c>
+      <c r="E98" t="s"/>
+      <c r="F98" t="s">
+        <v>286</v>
+      </c>
+      <c r="G98" t="s">
+        <v>287</v>
+      </c>
+      <c r="H98" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" t="s">
+        <v>288</v>
+      </c>
+      <c r="E99" t="s"/>
+      <c r="F99" t="s">
+        <v>289</v>
+      </c>
+      <c r="G99" t="s">
+        <v>290</v>
+      </c>
+      <c r="H99" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" t="s">
+        <v>292</v>
+      </c>
+      <c r="E100" t="s"/>
+      <c r="F100" t="s">
+        <v>293</v>
+      </c>
+      <c r="G100" t="s">
+        <v>294</v>
+      </c>
+      <c r="H100" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" t="s"/>
+      <c r="F101" t="s">
+        <v>296</v>
+      </c>
+      <c r="G101" t="s">
+        <v>297</v>
+      </c>
+      <c r="H101" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102" t="s">
+        <v>299</v>
+      </c>
+      <c r="E102" t="s"/>
+      <c r="F102" t="s">
+        <v>300</v>
+      </c>
+      <c r="G102" t="s">
+        <v>301</v>
+      </c>
+      <c r="H102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" t="s">
+        <v>303</v>
+      </c>
+      <c r="E103" t="s"/>
+      <c r="F103" t="s">
+        <v>304</v>
+      </c>
+      <c r="G103" t="s">
+        <v>305</v>
+      </c>
+      <c r="H103" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104" t="s"/>
+      <c r="F104" t="s">
+        <v>307</v>
+      </c>
+      <c r="G104" t="s">
+        <v>308</v>
+      </c>
+      <c r="H104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" t="s">
+        <v>310</v>
+      </c>
+      <c r="E105" t="s"/>
+      <c r="F105" t="s">
+        <v>311</v>
+      </c>
+      <c r="G105" t="s">
+        <v>312</v>
+      </c>
+      <c r="H105" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106" t="s">
+        <v>314</v>
+      </c>
+      <c r="E106" t="s"/>
+      <c r="F106" t="s">
+        <v>315</v>
+      </c>
+      <c r="G106" t="s">
+        <v>316</v>
+      </c>
+      <c r="H106" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107" t="s">
+        <v>314</v>
+      </c>
+      <c r="E107" t="s"/>
+      <c r="F107" t="s">
+        <v>318</v>
+      </c>
+      <c r="G107" t="s">
+        <v>319</v>
+      </c>
+      <c r="H107" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" t="s">
+        <v>321</v>
+      </c>
+      <c r="E108" t="s"/>
+      <c r="F108" t="s">
+        <v>322</v>
+      </c>
+      <c r="G108" t="s">
+        <v>323</v>
+      </c>
+      <c r="H108" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>175</v>
+      </c>
+      <c r="B109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" t="s">
+        <v>325</v>
+      </c>
+      <c r="E109" t="s"/>
+      <c r="F109" t="s">
+        <v>326</v>
+      </c>
+      <c r="G109" t="s">
+        <v>327</v>
+      </c>
+      <c r="H109" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>175</v>
+      </c>
+      <c r="B110" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110" t="s">
+        <v>329</v>
+      </c>
+      <c r="E110" t="s"/>
+      <c r="F110" t="s">
+        <v>330</v>
+      </c>
+      <c r="G110" t="s">
+        <v>331</v>
+      </c>
+      <c r="H110" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" t="s">
+        <v>61</v>
+      </c>
+      <c r="E111" t="s"/>
+      <c r="F111" t="s">
+        <v>333</v>
+      </c>
+      <c r="G111" t="s">
+        <v>334</v>
+      </c>
+      <c r="H111" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" t="s">
+        <v>336</v>
+      </c>
+      <c r="E112" t="s"/>
+      <c r="F112" t="s">
+        <v>337</v>
+      </c>
+      <c r="G112" t="s">
+        <v>338</v>
+      </c>
+      <c r="H112" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" t="s">
+        <v>340</v>
+      </c>
+      <c r="E113" t="s"/>
+      <c r="F113" t="s">
+        <v>341</v>
+      </c>
+      <c r="G113" t="s">
+        <v>342</v>
+      </c>
+      <c r="H113" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" t="s">
+        <v>344</v>
+      </c>
+      <c r="E114" t="s"/>
+      <c r="F114" t="s">
+        <v>345</v>
+      </c>
+      <c r="G114" t="s">
+        <v>346</v>
+      </c>
+      <c r="H114" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>175</v>
+      </c>
+      <c r="B115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" t="s">
+        <v>348</v>
+      </c>
+      <c r="E115" t="s"/>
+      <c r="F115" t="s">
+        <v>349</v>
+      </c>
+      <c r="G115" t="s">
+        <v>350</v>
+      </c>
+      <c r="H115" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" t="s">
+        <v>352</v>
+      </c>
+      <c r="E116" t="s"/>
+      <c r="F116" t="s">
+        <v>353</v>
+      </c>
+      <c r="G116" t="s">
+        <v>354</v>
+      </c>
+      <c r="H116" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" t="s">
+        <v>356</v>
+      </c>
+      <c r="E117" t="s"/>
+      <c r="F117" t="s">
+        <v>357</v>
+      </c>
+      <c r="G117" t="s">
+        <v>358</v>
+      </c>
+      <c r="H117" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" t="s">
+        <v>340</v>
+      </c>
+      <c r="E118" t="s"/>
+      <c r="F118" t="s">
+        <v>360</v>
+      </c>
+      <c r="G118" t="s">
+        <v>361</v>
+      </c>
+      <c r="H118" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>175</v>
+      </c>
+      <c r="B119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" t="s">
+        <v>340</v>
+      </c>
+      <c r="E119" t="s"/>
+      <c r="F119" t="s">
+        <v>363</v>
+      </c>
+      <c r="G119" t="s">
+        <v>364</v>
+      </c>
+      <c r="H119" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" t="s">
+        <v>340</v>
+      </c>
+      <c r="E120" t="s"/>
+      <c r="F120" t="s">
         <v>366</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G120" t="s">
         <v>367</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H120" t="s">
         <v>368</v>
       </c>
     </row>

--- a/heima-bankuai-list-2017-03-02.xlsx
+++ b/heima-bankuai-list-2017-03-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
   <si>
     <t>板块</t>
   </si>
@@ -334,6 +334,351 @@
     <t>0/314</t>
   </si>
   <si>
+    <t>班级活动</t>
+  </si>
+  <si>
+    <t>2016-12-29</t>
+  </si>
+  <si>
+    <t>暖心圣诞节-郑州黑马JavaEE就业03期</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=336806&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>5/241</t>
+  </si>
+  <si>
+    <t>2017-2-15</t>
+  </si>
+  <si>
+    <t>当元宵节遇到情人节，当我遇到你-郑州黑马UI设计就业5期</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=338536&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>23/192</t>
+  </si>
+  <si>
+    <t>送你离开</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=336877&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>2/161</t>
+  </si>
+  <si>
+    <t>2017-1-19</t>
+  </si>
+  <si>
+    <t>致—郑州黑马UI设计04期就业班宝宝们的一封信！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=337580&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>4/196</t>
+  </si>
+  <si>
+    <t>2016-12-28</t>
+  </si>
+  <si>
+    <t>相约圣诞，喜迎元旦--PHP03期与UI5期联谊晚会</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=336777&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>2/257</t>
+  </si>
+  <si>
+    <t>2016-12-27</t>
+  </si>
+  <si>
+    <t>夜虽长，静也安逸，闹也舒心</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=336734&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>3/206</t>
+  </si>
+  <si>
+    <t>2016-12-26</t>
+  </si>
+  <si>
+    <t>圣诞夜，鹅毛雪......</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=336687&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>4/171</t>
+  </si>
+  <si>
+    <t>2016-12-22</t>
+  </si>
+  <si>
+    <t>我们和冬至有个约会</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=336481&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>5/186</t>
+  </si>
+  <si>
+    <t>2016-10-14</t>
+  </si>
+  <si>
+    <t>明天的你会感谢今天奋斗的自己-郑州黑马Java EE3期开...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=331031&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>20/394</t>
+  </si>
+  <si>
+    <t>2016-12-6</t>
+  </si>
+  <si>
+    <t>致未来为世界创造美的优秀设计师们-郑州黑马UI设计基础05期</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=335643&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>4/275</t>
+  </si>
+  <si>
+    <t>2016-12-1</t>
+  </si>
+  <si>
+    <t>十一月份的尾巴，十二月份的前奏</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=335122&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>9/203</t>
+  </si>
+  <si>
+    <t>2016-11-2</t>
+  </si>
+  <si>
+    <t>【郑州校区】潇洒走一回</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=332767&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>7/246</t>
+  </si>
+  <si>
+    <t>2016-11-11</t>
+  </si>
+  <si>
+    <t>新的起航，你准备好了吗？</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=333434&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>6/218</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>背上行囊，带着传智黑马的期待，奔向远方！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=335062&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>5/177</t>
+  </si>
+  <si>
+    <t>2016-10-22</t>
+  </si>
+  <si>
+    <t>再不疯狂我们就老啦！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=331786&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>4/248</t>
+  </si>
+  <si>
+    <t>2016-10-20</t>
+  </si>
+  <si>
+    <t>一个充满文艺范的地方-我在这里等你！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=331529&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>1/177</t>
+  </si>
+  <si>
+    <t>2016-10-11</t>
+  </si>
+  <si>
+    <t>图画是设计师的语言---黑马郑州校区UI班手绘作品展</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=330539&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>1/327</t>
+  </si>
+  <si>
+    <t>2016-9-26</t>
+  </si>
+  <si>
+    <t>男男接吻？猪八戒背媳妇？一场别开生面的开班活动!</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=328798&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>3/456</t>
+  </si>
+  <si>
+    <t>2016-9-25</t>
+  </si>
+  <si>
+    <t>郑州黑马PHP就业01期秋游！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=328586&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>4/511</t>
+  </si>
+  <si>
+    <t>秋季，用双手谱写我们的篇章</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=328622&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>2/288</t>
+  </si>
+  <si>
+    <t>2016-9-3</t>
+  </si>
+  <si>
+    <t>不忘初心，方得始终</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=323298&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>11/269</t>
+  </si>
+  <si>
+    <t>2016-8-15</t>
+  </si>
+  <si>
+    <t>告白班主任，壁咚班长，美女导师热舞-郑州黑马UI3期</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=321030&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>13/507</t>
+  </si>
+  <si>
+    <t>2016-8-30</t>
+  </si>
+  <si>
+    <t>秋风不燥，蓝天尚好</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=322712&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>5/301</t>
+  </si>
+  <si>
+    <t>因为你在场，秋季更美好！--黑马郑州中心javaEE二期盛大开...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=322685&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>2/275</t>
+  </si>
+  <si>
+    <t>2016-8-6</t>
+  </si>
+  <si>
+    <t>舌战群儒，谁能脱颖而出？？</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=319960&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>7/209</t>
+  </si>
+  <si>
+    <t>伴随奥运，奋战PHP到底</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=321006&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>0/159</t>
+  </si>
+  <si>
+    <t>2016-8-11</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=320660&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>2/183</t>
+  </si>
+  <si>
+    <t>2016-8-8</t>
+  </si>
+  <si>
+    <t>【黑马PHP】但愿此刻的微笑，停留在永恒的记忆里！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=320223&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>1/216</t>
+  </si>
+  <si>
+    <t>2016-7-4</t>
+  </si>
+  <si>
+    <t>爱！让我们设计出更好的作品-黑马双元UI2期</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=314055&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>6/325</t>
+  </si>
+  <si>
+    <t>黑马郑州校区粽子节欢乐时光</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=310427&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D605</t>
+  </si>
+  <si>
+    <t>2/493</t>
+  </si>
+  <si>
     <t>就业薪资</t>
   </si>
   <si>
@@ -445,7 +790,7 @@
     <t>http://bbs.itheima.com/forum.php?mod=viewthread&amp;tid=339425&amp;extra=page%3D1%26filter%3Dtypeid%26typeid%3D647</t>
   </si>
   <si>
-    <t>1/54</t>
+    <t>1/55</t>
   </si>
   <si>
     <t>郑州传智Android就业10期，毕业110个工作日，就业率90.8%，平...</t>
@@ -731,9 +1076,6 @@
   </si>
   <si>
     <t>0/76</t>
-  </si>
-  <si>
-    <t>2016-12-29</t>
   </si>
   <si>
     <t>我们总能在最深的绝望里遇见最美的风景--黑马Android21期秦...</t>
@@ -1456,7 +1798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2002,512 +2344,510 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s"/>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s"/>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s"/>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s"/>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s"/>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s"/>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s"/>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s"/>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s"/>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="H31" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="s">
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s"/>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s"/>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s"/>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s"/>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s"/>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B35" t="s"/>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s"/>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="s">
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s"/>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s"/>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s"/>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s"/>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s"/>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s"/>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="H39" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s"/>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s"/>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E41" t="s"/>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="H41" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B42" t="s"/>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s"/>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s"/>
       <c r="C43" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="E43" t="s"/>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H43" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s"/>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s"/>
       <c r="F44" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="G44" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="H44" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s"/>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s"/>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="G45" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="H45" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s"/>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s"/>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="G46" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="H46" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s"/>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="E47" t="s"/>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="H47" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2519,17 +2859,17 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s"/>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="G48" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="H48" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2541,39 +2881,41 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s"/>
       <c r="F49" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="G49" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="H49" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>106</v>
       </c>
-      <c r="B50" t="s"/>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s"/>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="H50" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2585,39 +2927,41 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="E51" t="s"/>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="G51" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="H51" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>106</v>
       </c>
-      <c r="B52" t="s"/>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="E52" t="s"/>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="G52" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="H52" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2626,20 +2970,20 @@
       </c>
       <c r="B53" t="s"/>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="E53" t="s"/>
       <c r="F53" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="G53" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2648,755 +2992,747 @@
       </c>
       <c r="B54" t="s"/>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E54" t="s"/>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="G54" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="H54" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s"/>
       <c r="C55" t="s">
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s"/>
       <c r="F55" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="H55" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s"/>
       <c r="C56" t="s">
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s"/>
       <c r="F56" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="G56" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="H56" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B57" t="s"/>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="E57" t="s"/>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="G57" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B58" t="s"/>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="E58" t="s"/>
       <c r="F58" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="H58" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s"/>
       <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s"/>
       <c r="F59" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="G59" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="H59" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s"/>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="E60" t="s"/>
       <c r="F60" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="G60" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="H60" t="s">
-        <v>150</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B61" t="s"/>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="E61" t="s"/>
       <c r="F61" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="H61" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s"/>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="E62" t="s"/>
       <c r="F62" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="G62" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="H62" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s"/>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="E63" t="s"/>
       <c r="F63" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="G63" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="H63" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s"/>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="E64" t="s"/>
       <c r="F64" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="G64" t="s">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="H64" t="s">
-        <v>162</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B65" t="s"/>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="E65" t="s"/>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="G65" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="H65" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>106</v>
-      </c>
-      <c r="B66" t="s">
-        <v>51</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B66" t="s"/>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s"/>
       <c r="F66" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="G66" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="H66" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="B67" t="s"/>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="E67" t="s"/>
       <c r="F67" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="G67" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="H67" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B68" t="s"/>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E68" t="s"/>
       <c r="F68" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="G68" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="H68" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B69" t="s"/>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="E69" t="s"/>
       <c r="F69" t="s">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="G69" t="s">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="H69" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B70" t="s">
-        <v>183</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B70" t="s"/>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="E70" t="s"/>
       <c r="F70" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="G70" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="H70" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>175</v>
-      </c>
-      <c r="B71" t="s">
-        <v>183</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B71" t="s"/>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="E71" t="s"/>
       <c r="F71" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="G71" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="H71" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>175</v>
-      </c>
-      <c r="B72" t="s">
-        <v>183</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B72" t="s"/>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="E72" t="s"/>
       <c r="F72" t="s">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="G72" t="s">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="H72" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="E73" t="s"/>
       <c r="F73" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="G73" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="H73" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>175</v>
-      </c>
-      <c r="B74" t="s">
-        <v>198</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B74" t="s"/>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s"/>
       <c r="F74" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="G74" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="H74" t="s">
-        <v>202</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>175</v>
-      </c>
-      <c r="B75" t="s">
-        <v>203</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B75" t="s"/>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="E75" t="s"/>
       <c r="F75" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="G75" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="H75" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>175</v>
-      </c>
-      <c r="B76" t="s">
-        <v>208</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B76" t="s"/>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="E76" t="s"/>
       <c r="F76" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="G76" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="H76" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>175</v>
-      </c>
-      <c r="B77" t="s"/>
+        <v>290</v>
+      </c>
+      <c r="B77" t="s">
+        <v>298</v>
+      </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="E77" t="s"/>
       <c r="F77" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="G77" t="s">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="H77" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E78" t="s"/>
       <c r="F78" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="G78" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="H78" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>175</v>
-      </c>
-      <c r="B79" t="s"/>
+        <v>290</v>
+      </c>
+      <c r="B79" t="s">
+        <v>298</v>
+      </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E79" t="s"/>
       <c r="F79" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="G79" t="s">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="H79" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>309</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E80" t="s"/>
       <c r="F80" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="G80" t="s">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="H80" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" t="s"/>
+        <v>290</v>
+      </c>
+      <c r="B81" t="s">
+        <v>313</v>
+      </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="E81" t="s"/>
       <c r="F81" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
       <c r="G81" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="H81" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>175</v>
-      </c>
-      <c r="B82" t="s"/>
+        <v>290</v>
+      </c>
+      <c r="B82" t="s">
+        <v>318</v>
+      </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="E82" t="s"/>
       <c r="F82" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="G82" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="H82" t="s">
-        <v>235</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>175</v>
-      </c>
-      <c r="B83" t="s"/>
+        <v>290</v>
+      </c>
+      <c r="B83" t="s">
+        <v>323</v>
+      </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>262</v>
       </c>
       <c r="E83" t="s"/>
       <c r="F83" t="s">
-        <v>236</v>
+        <v>325</v>
       </c>
       <c r="G83" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="H83" t="s">
-        <v>238</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>175</v>
-      </c>
-      <c r="B84" t="s">
-        <v>51</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B84" t="s"/>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>328</v>
       </c>
       <c r="D84" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="E84" t="s"/>
       <c r="F84" t="s">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="G84" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="H84" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>324</v>
       </c>
       <c r="D85" t="s">
-        <v>226</v>
+        <v>333</v>
       </c>
       <c r="E85" t="s"/>
       <c r="F85" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="G85" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="H85" t="s">
-        <v>245</v>
+        <v>336</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" t="s">
-        <v>51</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B86" t="s"/>
       <c r="C86" t="s">
-        <v>52</v>
+        <v>328</v>
       </c>
       <c r="D86" t="s">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="E86" t="s"/>
       <c r="F86" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="G86" t="s">
-        <v>247</v>
+        <v>339</v>
       </c>
       <c r="H86" t="s">
-        <v>248</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B87" t="s">
         <v>51</v>
@@ -3405,94 +3741,88 @@
         <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>249</v>
+        <v>341</v>
       </c>
       <c r="E87" t="s"/>
       <c r="F87" t="s">
-        <v>250</v>
+        <v>342</v>
       </c>
       <c r="G87" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c r="H87" t="s">
-        <v>252</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>175</v>
-      </c>
-      <c r="B88" t="s">
-        <v>51</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B88" t="s"/>
       <c r="C88" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="E88" t="s"/>
       <c r="F88" t="s">
-        <v>254</v>
+        <v>345</v>
       </c>
       <c r="G88" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
       <c r="H88" t="s">
-        <v>256</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" t="s">
-        <v>51</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B89" t="s"/>
       <c r="C89" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="E89" t="s"/>
       <c r="F89" t="s">
-        <v>258</v>
+        <v>348</v>
       </c>
       <c r="G89" t="s">
-        <v>259</v>
+        <v>349</v>
       </c>
       <c r="H89" t="s">
-        <v>260</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>175</v>
-      </c>
-      <c r="B90" t="s">
-        <v>51</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B90" t="s"/>
       <c r="C90" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="E90" t="s"/>
       <c r="F90" t="s">
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="G90" t="s">
-        <v>262</v>
+        <v>352</v>
       </c>
       <c r="H90" t="s">
-        <v>263</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B91" t="s">
         <v>51</v>
@@ -3501,22 +3831,22 @@
         <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s"/>
       <c r="F91" t="s">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="G91" t="s">
-        <v>265</v>
+        <v>355</v>
       </c>
       <c r="H91" t="s">
-        <v>266</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s">
         <v>51</v>
@@ -3525,22 +3855,22 @@
         <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="E92" t="s"/>
       <c r="F92" t="s">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="G92" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
       <c r="H92" t="s">
-        <v>269</v>
+        <v>359</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B93" t="s">
         <v>51</v>
@@ -3549,22 +3879,22 @@
         <v>52</v>
       </c>
       <c r="D93" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="E93" t="s"/>
       <c r="F93" t="s">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G93" t="s">
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="H93" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B94" t="s">
         <v>51</v>
@@ -3573,22 +3903,22 @@
         <v>52</v>
       </c>
       <c r="D94" t="s">
-        <v>257</v>
+        <v>363</v>
       </c>
       <c r="E94" t="s"/>
       <c r="F94" t="s">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="G94" t="s">
-        <v>274</v>
+        <v>365</v>
       </c>
       <c r="H94" t="s">
-        <v>275</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B95" t="s">
         <v>51</v>
@@ -3597,22 +3927,22 @@
         <v>52</v>
       </c>
       <c r="D95" t="s">
-        <v>257</v>
+        <v>367</v>
       </c>
       <c r="E95" t="s"/>
       <c r="F95" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="G95" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="H95" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s">
         <v>51</v>
@@ -3621,22 +3951,22 @@
         <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="E96" t="s"/>
       <c r="F96" t="s">
-        <v>279</v>
+        <v>372</v>
       </c>
       <c r="G96" t="s">
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="H96" t="s">
-        <v>281</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B97" t="s">
         <v>51</v>
@@ -3645,22 +3975,22 @@
         <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="E97" t="s"/>
       <c r="F97" t="s">
-        <v>282</v>
+        <v>375</v>
       </c>
       <c r="G97" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="H97" t="s">
-        <v>284</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B98" t="s">
         <v>51</v>
@@ -3669,22 +3999,22 @@
         <v>52</v>
       </c>
       <c r="D98" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="E98" t="s"/>
       <c r="F98" t="s">
-        <v>286</v>
+        <v>378</v>
       </c>
       <c r="G98" t="s">
-        <v>287</v>
+        <v>379</v>
       </c>
       <c r="H98" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s">
         <v>51</v>
@@ -3693,22 +4023,22 @@
         <v>52</v>
       </c>
       <c r="D99" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="E99" t="s"/>
       <c r="F99" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="G99" t="s">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="H99" t="s">
-        <v>291</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B100" t="s">
         <v>51</v>
@@ -3717,22 +4047,22 @@
         <v>52</v>
       </c>
       <c r="D100" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="E100" t="s"/>
       <c r="F100" t="s">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="G100" t="s">
-        <v>294</v>
+        <v>385</v>
       </c>
       <c r="H100" t="s">
-        <v>295</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B101" t="s">
         <v>51</v>
@@ -3741,22 +4071,22 @@
         <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>43</v>
+        <v>371</v>
       </c>
       <c r="E101" t="s"/>
       <c r="F101" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="G101" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="H101" t="s">
-        <v>298</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B102" t="s">
         <v>51</v>
@@ -3765,22 +4095,22 @@
         <v>52</v>
       </c>
       <c r="D102" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
       <c r="E102" t="s"/>
       <c r="F102" t="s">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="G102" t="s">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="H102" t="s">
-        <v>302</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s">
         <v>51</v>
@@ -3789,22 +4119,22 @@
         <v>52</v>
       </c>
       <c r="D103" t="s">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="E103" t="s"/>
       <c r="F103" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="G103" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="H103" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B104" t="s">
         <v>51</v>
@@ -3813,22 +4143,22 @@
         <v>52</v>
       </c>
       <c r="D104" t="s">
-        <v>57</v>
+        <v>371</v>
       </c>
       <c r="E104" t="s"/>
       <c r="F104" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="G104" t="s">
-        <v>308</v>
+        <v>397</v>
       </c>
       <c r="H104" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B105" t="s">
         <v>51</v>
@@ -3837,22 +4167,22 @@
         <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="E105" t="s"/>
       <c r="F105" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="G105" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="H105" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B106" t="s">
         <v>51</v>
@@ -3861,22 +4191,22 @@
         <v>52</v>
       </c>
       <c r="D106" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="E106" t="s"/>
       <c r="F106" t="s">
-        <v>315</v>
+        <v>403</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>404</v>
       </c>
       <c r="H106" t="s">
-        <v>317</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B107" t="s">
         <v>51</v>
@@ -3885,22 +4215,22 @@
         <v>52</v>
       </c>
       <c r="D107" t="s">
-        <v>314</v>
+        <v>406</v>
       </c>
       <c r="E107" t="s"/>
       <c r="F107" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="G107" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="H107" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B108" t="s">
         <v>51</v>
@@ -3909,22 +4239,22 @@
         <v>52</v>
       </c>
       <c r="D108" t="s">
-        <v>321</v>
+        <v>43</v>
       </c>
       <c r="E108" t="s"/>
       <c r="F108" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="G108" t="s">
-        <v>323</v>
+        <v>411</v>
       </c>
       <c r="H108" t="s">
-        <v>324</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B109" t="s">
         <v>51</v>
@@ -3933,22 +4263,22 @@
         <v>52</v>
       </c>
       <c r="D109" t="s">
-        <v>325</v>
+        <v>413</v>
       </c>
       <c r="E109" t="s"/>
       <c r="F109" t="s">
-        <v>326</v>
+        <v>414</v>
       </c>
       <c r="G109" t="s">
-        <v>327</v>
+        <v>415</v>
       </c>
       <c r="H109" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B110" t="s">
         <v>51</v>
@@ -3957,22 +4287,22 @@
         <v>52</v>
       </c>
       <c r="D110" t="s">
-        <v>329</v>
+        <v>417</v>
       </c>
       <c r="E110" t="s"/>
       <c r="F110" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="G110" t="s">
-        <v>331</v>
+        <v>419</v>
       </c>
       <c r="H110" t="s">
-        <v>332</v>
+        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B111" t="s">
         <v>51</v>
@@ -3981,22 +4311,22 @@
         <v>52</v>
       </c>
       <c r="D111" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E111" t="s"/>
       <c r="F111" t="s">
-        <v>333</v>
+        <v>421</v>
       </c>
       <c r="G111" t="s">
-        <v>334</v>
+        <v>422</v>
       </c>
       <c r="H111" t="s">
-        <v>335</v>
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B112" t="s">
         <v>51</v>
@@ -4005,22 +4335,22 @@
         <v>52</v>
       </c>
       <c r="D112" t="s">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="E112" t="s"/>
       <c r="F112" t="s">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="G112" t="s">
-        <v>338</v>
+        <v>426</v>
       </c>
       <c r="H112" t="s">
-        <v>339</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B113" t="s">
         <v>51</v>
@@ -4029,22 +4359,22 @@
         <v>52</v>
       </c>
       <c r="D113" t="s">
-        <v>340</v>
+        <v>428</v>
       </c>
       <c r="E113" t="s"/>
       <c r="F113" t="s">
-        <v>341</v>
+        <v>429</v>
       </c>
       <c r="G113" t="s">
-        <v>342</v>
+        <v>430</v>
       </c>
       <c r="H113" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B114" t="s">
         <v>51</v>
@@ -4053,22 +4383,22 @@
         <v>52</v>
       </c>
       <c r="D114" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="E114" t="s"/>
       <c r="F114" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
       <c r="G114" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="H114" t="s">
-        <v>347</v>
+        <v>434</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B115" t="s">
         <v>51</v>
@@ -4077,22 +4407,22 @@
         <v>52</v>
       </c>
       <c r="D115" t="s">
-        <v>348</v>
+        <v>435</v>
       </c>
       <c r="E115" t="s"/>
       <c r="F115" t="s">
-        <v>349</v>
+        <v>436</v>
       </c>
       <c r="G115" t="s">
-        <v>350</v>
+        <v>437</v>
       </c>
       <c r="H115" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B116" t="s">
         <v>51</v>
@@ -4101,22 +4431,22 @@
         <v>52</v>
       </c>
       <c r="D116" t="s">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="E116" t="s"/>
       <c r="F116" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
       <c r="G116" t="s">
-        <v>354</v>
+        <v>441</v>
       </c>
       <c r="H116" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B117" t="s">
         <v>51</v>
@@ -4125,22 +4455,22 @@
         <v>52</v>
       </c>
       <c r="D117" t="s">
-        <v>356</v>
+        <v>443</v>
       </c>
       <c r="E117" t="s"/>
       <c r="F117" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="G117" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="H117" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B118" t="s">
         <v>51</v>
@@ -4149,22 +4479,22 @@
         <v>52</v>
       </c>
       <c r="D118" t="s">
-        <v>340</v>
+        <v>61</v>
       </c>
       <c r="E118" t="s"/>
       <c r="F118" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="G118" t="s">
-        <v>361</v>
+        <v>448</v>
       </c>
       <c r="H118" t="s">
-        <v>362</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B119" t="s">
         <v>51</v>
@@ -4173,22 +4503,22 @@
         <v>52</v>
       </c>
       <c r="D119" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="E119" t="s"/>
       <c r="F119" t="s">
-        <v>363</v>
+        <v>451</v>
       </c>
       <c r="G119" t="s">
-        <v>364</v>
+        <v>452</v>
       </c>
       <c r="H119" t="s">
-        <v>365</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="B120" t="s">
         <v>51</v>
@@ -4197,17 +4527,185 @@
         <v>52</v>
       </c>
       <c r="D120" t="s">
-        <v>340</v>
+        <v>454</v>
       </c>
       <c r="E120" t="s"/>
       <c r="F120" t="s">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="G120" t="s">
-        <v>367</v>
+        <v>456</v>
       </c>
       <c r="H120" t="s">
-        <v>368</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>290</v>
+      </c>
+      <c r="B121" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" t="s">
+        <v>458</v>
+      </c>
+      <c r="E121" t="s"/>
+      <c r="F121" t="s">
+        <v>459</v>
+      </c>
+      <c r="G121" t="s">
+        <v>460</v>
+      </c>
+      <c r="H121" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>290</v>
+      </c>
+      <c r="B122" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" t="s">
+        <v>462</v>
+      </c>
+      <c r="E122" t="s"/>
+      <c r="F122" t="s">
+        <v>463</v>
+      </c>
+      <c r="G122" t="s">
+        <v>464</v>
+      </c>
+      <c r="H122" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>290</v>
+      </c>
+      <c r="B123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" t="s">
+        <v>466</v>
+      </c>
+      <c r="E123" t="s"/>
+      <c r="F123" t="s">
+        <v>467</v>
+      </c>
+      <c r="G123" t="s">
+        <v>468</v>
+      </c>
+      <c r="H123" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>290</v>
+      </c>
+      <c r="B124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" t="s">
+        <v>470</v>
+      </c>
+      <c r="E124" t="s"/>
+      <c r="F124" t="s">
+        <v>471</v>
+      </c>
+      <c r="G124" t="s">
+        <v>472</v>
+      </c>
+      <c r="H124" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>290</v>
+      </c>
+      <c r="B125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125" t="s">
+        <v>454</v>
+      </c>
+      <c r="E125" t="s"/>
+      <c r="F125" t="s">
+        <v>474</v>
+      </c>
+      <c r="G125" t="s">
+        <v>475</v>
+      </c>
+      <c r="H125" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>290</v>
+      </c>
+      <c r="B126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C126" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" t="s">
+        <v>454</v>
+      </c>
+      <c r="E126" t="s"/>
+      <c r="F126" t="s">
+        <v>477</v>
+      </c>
+      <c r="G126" t="s">
+        <v>478</v>
+      </c>
+      <c r="H126" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>290</v>
+      </c>
+      <c r="B127" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" t="s">
+        <v>454</v>
+      </c>
+      <c r="E127" t="s"/>
+      <c r="F127" t="s">
+        <v>480</v>
+      </c>
+      <c r="G127" t="s">
+        <v>481</v>
+      </c>
+      <c r="H127" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
